--- a/Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1024ACFA-AA6D-42FA-865A-AF57DEDA32F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOSYY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>TOSYY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,36 +689,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -710,88 +744,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35015200</v>
+        <v>35686300</v>
       </c>
       <c r="E8" s="3">
-        <v>35867900</v>
+        <v>36555400</v>
       </c>
       <c r="F8" s="3">
-        <v>45723400</v>
+        <v>46599700</v>
       </c>
       <c r="G8" s="3">
-        <v>54237200</v>
+        <v>55276700</v>
       </c>
       <c r="H8" s="3">
-        <v>57563700</v>
+        <v>58666900</v>
       </c>
       <c r="I8" s="3">
-        <v>50798400</v>
+        <v>51772000</v>
       </c>
       <c r="J8" s="3">
-        <v>54109300</v>
+        <v>55146400</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26493300</v>
+        <v>27001000</v>
       </c>
       <c r="E9" s="3">
-        <v>26744800</v>
+        <v>27257400</v>
       </c>
       <c r="F9" s="3">
-        <v>39057500</v>
+        <v>39806000</v>
       </c>
       <c r="G9" s="3">
-        <v>41717400</v>
+        <v>42517000</v>
       </c>
       <c r="H9" s="3">
-        <v>43159500</v>
+        <v>43986700</v>
       </c>
       <c r="I9" s="3">
-        <v>77412300</v>
+        <v>38998200</v>
       </c>
       <c r="J9" s="3">
-        <v>41114200</v>
+        <v>83743400</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8521900</v>
+        <v>8685200</v>
       </c>
       <c r="E10" s="3">
-        <v>9123100</v>
+        <v>9298000</v>
       </c>
       <c r="F10" s="3">
-        <v>6665900</v>
+        <v>6793700</v>
       </c>
       <c r="G10" s="3">
-        <v>12519800</v>
+        <v>12759700</v>
       </c>
       <c r="H10" s="3">
-        <v>14404100</v>
+        <v>14680200</v>
       </c>
       <c r="I10" s="3">
-        <v>-26614000</v>
+        <v>12773800</v>
       </c>
       <c r="J10" s="3">
-        <v>12995100</v>
+        <v>-28597000</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -804,7 +838,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,15 +857,15 @@
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
-        <v>2661200</v>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>2837200</v>
+        <v>2891600</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -858,7 +892,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -866,10 +900,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>150000</v>
+        <v>152900</v>
       </c>
       <c r="F14" s="3">
-        <v>420200</v>
+        <v>428200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -885,7 +919,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -912,7 +946,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -922,61 +956,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34446900</v>
+        <v>35107100</v>
       </c>
       <c r="E17" s="3">
-        <v>35140500</v>
+        <v>35814000</v>
       </c>
       <c r="F17" s="3">
-        <v>50007700</v>
+        <v>50966100</v>
       </c>
       <c r="G17" s="3">
-        <v>52566000</v>
+        <v>53573500</v>
       </c>
       <c r="H17" s="3">
-        <v>55282900</v>
+        <v>56342500</v>
       </c>
       <c r="I17" s="3">
-        <v>49044400</v>
+        <v>49984400</v>
       </c>
       <c r="J17" s="3">
-        <v>52311700</v>
+        <v>53314300</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>568300</v>
+        <v>579200</v>
       </c>
       <c r="E18" s="3">
-        <v>727500</v>
+        <v>741400</v>
       </c>
       <c r="F18" s="3">
-        <v>-4284300</v>
+        <v>-4366400</v>
       </c>
       <c r="G18" s="3">
-        <v>1671200</v>
+        <v>1703200</v>
       </c>
       <c r="H18" s="3">
-        <v>2280700</v>
+        <v>2324400</v>
       </c>
       <c r="I18" s="3">
-        <v>1754000</v>
+        <v>1787600</v>
       </c>
       <c r="J18" s="3">
-        <v>1797600</v>
+        <v>1832100</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -989,142 +1023,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>422900</v>
+        <v>431000</v>
       </c>
       <c r="E20" s="3">
-        <v>-164400</v>
+        <v>-167500</v>
       </c>
       <c r="F20" s="3">
-        <v>900500</v>
+        <v>917800</v>
       </c>
       <c r="G20" s="3">
-        <v>-76100</v>
+        <v>-77600</v>
       </c>
       <c r="H20" s="3">
-        <v>-364500</v>
+        <v>-371500</v>
       </c>
       <c r="I20" s="3">
-        <v>-48200</v>
+        <v>-49100</v>
       </c>
       <c r="J20" s="3">
-        <v>-224100</v>
+        <v>-228400</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2038400</v>
+        <v>2078700</v>
       </c>
       <c r="E21" s="3">
-        <v>2008700</v>
+        <v>2048800</v>
       </c>
       <c r="F21" s="3">
-        <v>-1486800</v>
+        <v>-1513100</v>
       </c>
       <c r="G21" s="3">
-        <v>3279800</v>
+        <v>3344600</v>
       </c>
       <c r="H21" s="3">
-        <v>3440000</v>
+        <v>3507700</v>
       </c>
       <c r="I21" s="3">
-        <v>3645300</v>
+        <v>3717300</v>
       </c>
       <c r="J21" s="3">
-        <v>3787800</v>
+        <v>3862900</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>260500</v>
+        <v>265500</v>
       </c>
       <c r="E22" s="3">
-        <v>164400</v>
+        <v>167600</v>
       </c>
       <c r="F22" s="3">
-        <v>158500</v>
+        <v>161600</v>
       </c>
       <c r="G22" s="3">
-        <v>205900</v>
+        <v>209900</v>
       </c>
       <c r="H22" s="3">
-        <v>298900</v>
+        <v>304600</v>
       </c>
       <c r="I22" s="3">
-        <v>289800</v>
+        <v>295400</v>
       </c>
       <c r="J22" s="3">
-        <v>282200</v>
+        <v>287600</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>730700</v>
+        <v>744700</v>
       </c>
       <c r="E23" s="3">
-        <v>398700</v>
+        <v>406300</v>
       </c>
       <c r="F23" s="3">
-        <v>-3542300</v>
+        <v>-3610200</v>
       </c>
       <c r="G23" s="3">
-        <v>1389200</v>
+        <v>1415800</v>
       </c>
       <c r="H23" s="3">
-        <v>1617300</v>
+        <v>1648300</v>
       </c>
       <c r="I23" s="3">
-        <v>1415900</v>
+        <v>1443000</v>
       </c>
       <c r="J23" s="3">
-        <v>1291300</v>
+        <v>1316000</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-549400</v>
+        <v>-559900</v>
       </c>
       <c r="E24" s="3">
-        <v>514200</v>
+        <v>524000</v>
       </c>
       <c r="F24" s="3">
-        <v>2185700</v>
+        <v>2227600</v>
       </c>
       <c r="G24" s="3">
-        <v>1268600</v>
+        <v>1292900</v>
       </c>
       <c r="H24" s="3">
-        <v>816400</v>
+        <v>832100</v>
       </c>
       <c r="I24" s="3">
-        <v>526100</v>
+        <v>536200</v>
       </c>
       <c r="J24" s="3">
-        <v>569700</v>
+        <v>580600</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1151,61 +1185,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1280100</v>
+        <v>1304600</v>
       </c>
       <c r="E26" s="3">
-        <v>-115500</v>
+        <v>-117700</v>
       </c>
       <c r="F26" s="3">
-        <v>-5728000</v>
+        <v>-5837800</v>
       </c>
       <c r="G26" s="3">
-        <v>120600</v>
+        <v>122900</v>
       </c>
       <c r="H26" s="3">
-        <v>800900</v>
+        <v>816200</v>
       </c>
       <c r="I26" s="3">
-        <v>889800</v>
+        <v>906800</v>
       </c>
       <c r="J26" s="3">
-        <v>721600</v>
+        <v>735500</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>957500</v>
+        <v>975800</v>
       </c>
       <c r="E27" s="3">
-        <v>1610100</v>
+        <v>1640900</v>
       </c>
       <c r="F27" s="3">
-        <v>-5231100</v>
+        <v>-5331300</v>
       </c>
       <c r="G27" s="3">
-        <v>-46200</v>
+        <v>-47100</v>
       </c>
       <c r="H27" s="3">
-        <v>667600</v>
+        <v>680400</v>
       </c>
       <c r="I27" s="3">
-        <v>730400</v>
+        <v>744400</v>
       </c>
       <c r="J27" s="3">
-        <v>632900</v>
+        <v>645000</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1232,34 +1266,34 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>6174100</v>
+        <v>6292500</v>
       </c>
       <c r="E29" s="3">
-        <v>-10175500</v>
+        <v>-10370500</v>
       </c>
       <c r="F29" s="3">
-        <v>1150800</v>
+        <v>1172800</v>
       </c>
       <c r="G29" s="3">
-        <v>-289300</v>
+        <v>-294800</v>
       </c>
       <c r="H29" s="3">
-        <v>-133200</v>
+        <v>-135800</v>
       </c>
       <c r="I29" s="3">
-        <v>-44200</v>
+        <v>-45000</v>
       </c>
       <c r="J29" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1286,7 +1320,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1313,61 +1347,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-422900</v>
+        <v>-431000</v>
       </c>
       <c r="E32" s="3">
-        <v>164400</v>
+        <v>167500</v>
       </c>
       <c r="F32" s="3">
-        <v>-900500</v>
+        <v>-917800</v>
       </c>
       <c r="G32" s="3">
-        <v>76100</v>
+        <v>77600</v>
       </c>
       <c r="H32" s="3">
-        <v>364500</v>
+        <v>371500</v>
       </c>
       <c r="I32" s="3">
-        <v>48200</v>
+        <v>49100</v>
       </c>
       <c r="J32" s="3">
-        <v>224100</v>
+        <v>228400</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7131600</v>
+        <v>7268300</v>
       </c>
       <c r="E33" s="3">
-        <v>-8565400</v>
+        <v>-8729600</v>
       </c>
       <c r="F33" s="3">
-        <v>-4080300</v>
+        <v>-4158500</v>
       </c>
       <c r="G33" s="3">
-        <v>-335500</v>
+        <v>-341900</v>
       </c>
       <c r="H33" s="3">
-        <v>534300</v>
+        <v>544600</v>
       </c>
       <c r="I33" s="3">
-        <v>686200</v>
+        <v>699400</v>
       </c>
       <c r="J33" s="3">
-        <v>621400</v>
+        <v>633300</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1394,39 +1428,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7131600</v>
+        <v>7268300</v>
       </c>
       <c r="E35" s="3">
-        <v>-8565400</v>
+        <v>-8729600</v>
       </c>
       <c r="F35" s="3">
-        <v>-4080300</v>
+        <v>-4158500</v>
       </c>
       <c r="G35" s="3">
-        <v>-335500</v>
+        <v>-341900</v>
       </c>
       <c r="H35" s="3">
-        <v>534300</v>
+        <v>544600</v>
       </c>
       <c r="I35" s="3">
-        <v>686200</v>
+        <v>699400</v>
       </c>
       <c r="J35" s="3">
-        <v>621400</v>
+        <v>633300</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1487,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1466,7 +1500,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1479,34 +1513,34 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4442300</v>
+        <v>4527400</v>
       </c>
       <c r="E41" s="3">
-        <v>4622100</v>
+        <v>4710700</v>
       </c>
       <c r="F41" s="3">
-        <v>8601400</v>
+        <v>8766200</v>
       </c>
       <c r="G41" s="3">
-        <v>1686900</v>
+        <v>1719200</v>
       </c>
       <c r="H41" s="3">
-        <v>1519800</v>
+        <v>1548900</v>
       </c>
       <c r="I41" s="3">
-        <v>1855300</v>
+        <v>1890900</v>
       </c>
       <c r="J41" s="3">
-        <v>1900900</v>
+        <v>1937300</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1533,196 +1567,196 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10039500</v>
+        <v>10231900</v>
       </c>
       <c r="E43" s="3">
-        <v>9379900</v>
+        <v>9559700</v>
       </c>
       <c r="F43" s="3">
-        <v>11241300</v>
+        <v>11456700</v>
       </c>
       <c r="G43" s="3">
-        <v>13430300</v>
+        <v>13687700</v>
       </c>
       <c r="H43" s="3">
-        <v>14544800</v>
+        <v>14823600</v>
       </c>
       <c r="I43" s="3">
-        <v>13555700</v>
+        <v>13815500</v>
       </c>
       <c r="J43" s="3">
-        <v>13396200</v>
+        <v>15472100</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4166800</v>
+        <v>4246700</v>
       </c>
       <c r="E44" s="3">
-        <v>4441100</v>
+        <v>4526200</v>
       </c>
       <c r="F44" s="3">
-        <v>6467300</v>
+        <v>6591300</v>
       </c>
       <c r="G44" s="3">
-        <v>11906300</v>
+        <v>12134500</v>
       </c>
       <c r="H44" s="3">
-        <v>7848300</v>
+        <v>7998700</v>
       </c>
       <c r="I44" s="3">
-        <v>8897600</v>
+        <v>9068100</v>
       </c>
       <c r="J44" s="3">
-        <v>7842700</v>
+        <v>14849700</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13097900</v>
+        <v>13349000</v>
       </c>
       <c r="E45" s="3">
-        <v>9846600</v>
+        <v>10035300</v>
       </c>
       <c r="F45" s="3">
-        <v>4367700</v>
+        <v>4451400</v>
       </c>
       <c r="G45" s="3">
-        <v>6413800</v>
+        <v>6536800</v>
       </c>
       <c r="H45" s="3">
-        <v>4104600</v>
+        <v>4183300</v>
       </c>
       <c r="I45" s="3">
-        <v>3724500</v>
+        <v>3795900</v>
       </c>
       <c r="J45" s="3">
-        <v>3554500</v>
+        <v>7495100</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31746600</v>
+        <v>32355000</v>
       </c>
       <c r="E46" s="3">
-        <v>28289700</v>
+        <v>28831900</v>
       </c>
       <c r="F46" s="3">
-        <v>30677600</v>
+        <v>31265600</v>
       </c>
       <c r="G46" s="3">
-        <v>29611700</v>
+        <v>30179200</v>
       </c>
       <c r="H46" s="3">
-        <v>28017400</v>
+        <v>28554400</v>
       </c>
       <c r="I46" s="3">
-        <v>28033100</v>
+        <v>28570400</v>
       </c>
       <c r="J46" s="3">
-        <v>26694400</v>
+        <v>27206000</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2180600</v>
+        <v>2222400</v>
       </c>
       <c r="E47" s="3">
-        <v>2003100</v>
+        <v>2041500</v>
       </c>
       <c r="F47" s="3">
-        <v>3224700</v>
+        <v>3286500</v>
       </c>
       <c r="G47" s="3">
-        <v>5600900</v>
+        <v>5708200</v>
       </c>
       <c r="H47" s="3">
-        <v>5876900</v>
+        <v>5989500</v>
       </c>
       <c r="I47" s="3">
-        <v>6263900</v>
+        <v>6383900</v>
       </c>
       <c r="J47" s="3">
-        <v>6219900</v>
+        <v>10077200</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3243200</v>
+        <v>3305300</v>
       </c>
       <c r="E48" s="3">
-        <v>3581100</v>
+        <v>3649700</v>
       </c>
       <c r="F48" s="3">
-        <v>7045500</v>
+        <v>7180500</v>
       </c>
       <c r="G48" s="3">
-        <v>7570900</v>
+        <v>7716000</v>
       </c>
       <c r="H48" s="3">
-        <v>8072800</v>
+        <v>8227500</v>
       </c>
       <c r="I48" s="3">
-        <v>7847100</v>
+        <v>7997500</v>
       </c>
       <c r="J48" s="3">
-        <v>8988400</v>
+        <v>36286100</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1122100</v>
+        <v>1143700</v>
       </c>
       <c r="E49" s="3">
-        <v>6274600</v>
+        <v>6394800</v>
       </c>
       <c r="F49" s="3">
-        <v>5675800</v>
+        <v>5784600</v>
       </c>
       <c r="G49" s="3">
-        <v>9712400</v>
+        <v>9898500</v>
       </c>
       <c r="H49" s="3">
-        <v>8824700</v>
+        <v>8993800</v>
       </c>
       <c r="I49" s="3">
-        <v>8090600</v>
+        <v>8245600</v>
       </c>
       <c r="J49" s="3">
-        <v>6418100</v>
+        <v>12956000</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1749,7 +1783,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1776,34 +1810,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1251800</v>
+        <v>1275800</v>
       </c>
       <c r="E52" s="3">
-        <v>929100</v>
+        <v>946900</v>
       </c>
       <c r="F52" s="3">
-        <v>1570100</v>
+        <v>1600200</v>
       </c>
       <c r="G52" s="3">
-        <v>3693600</v>
+        <v>3764400</v>
       </c>
       <c r="H52" s="3">
-        <v>3958500</v>
+        <v>4034400</v>
       </c>
       <c r="I52" s="3">
-        <v>3872300</v>
+        <v>3946600</v>
       </c>
       <c r="J52" s="3">
-        <v>4142800</v>
+        <v>8620500</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1830,34 +1864,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39544300</v>
+        <v>40302200</v>
       </c>
       <c r="E54" s="3">
-        <v>37870600</v>
+        <v>38596400</v>
       </c>
       <c r="F54" s="3">
-        <v>48193700</v>
+        <v>49117400</v>
       </c>
       <c r="G54" s="3">
-        <v>56189500</v>
+        <v>57266400</v>
       </c>
       <c r="H54" s="3">
-        <v>54750200</v>
+        <v>55799600</v>
       </c>
       <c r="I54" s="3">
-        <v>54107000</v>
+        <v>55144000</v>
       </c>
       <c r="J54" s="3">
-        <v>51026800</v>
+        <v>52004700</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1870,7 +1904,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1883,169 +1917,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6073200</v>
+        <v>6189600</v>
       </c>
       <c r="E57" s="3">
-        <v>5975500</v>
+        <v>6090100</v>
       </c>
       <c r="F57" s="3">
-        <v>7779500</v>
+        <v>7928600</v>
       </c>
       <c r="G57" s="3">
-        <v>10306500</v>
+        <v>10504000</v>
       </c>
       <c r="H57" s="3">
-        <v>10687300</v>
+        <v>10892100</v>
       </c>
       <c r="I57" s="3">
-        <v>10557100</v>
+        <v>10759400</v>
       </c>
       <c r="J57" s="3">
-        <v>11469200</v>
+        <v>11689000</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2674800</v>
+        <v>2726100</v>
       </c>
       <c r="E58" s="3">
-        <v>8993100</v>
+        <v>9165400</v>
       </c>
       <c r="F58" s="3">
-        <v>5496000</v>
+        <v>5601300</v>
       </c>
       <c r="G58" s="3">
-        <v>2376900</v>
+        <v>2422500</v>
       </c>
       <c r="H58" s="3">
-        <v>3610500</v>
+        <v>3679700</v>
       </c>
       <c r="I58" s="3">
-        <v>3841800</v>
+        <v>3915500</v>
       </c>
       <c r="J58" s="3">
-        <v>2892900</v>
+        <v>4816200</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12814400</v>
+        <v>13060000</v>
       </c>
       <c r="E59" s="3">
-        <v>12641900</v>
+        <v>12884200</v>
       </c>
       <c r="F59" s="3">
-        <v>13973200</v>
+        <v>14241000</v>
       </c>
       <c r="G59" s="3">
-        <v>13136000</v>
+        <v>13387800</v>
       </c>
       <c r="H59" s="3">
-        <v>11753700</v>
+        <v>11978900</v>
       </c>
       <c r="I59" s="3">
-        <v>9882200</v>
+        <v>10071600</v>
       </c>
       <c r="J59" s="3">
-        <v>9317000</v>
+        <v>13509200</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21562400</v>
+        <v>21975700</v>
       </c>
       <c r="E60" s="3">
-        <v>24700500</v>
+        <v>25173900</v>
       </c>
       <c r="F60" s="3">
-        <v>27248700</v>
+        <v>27771000</v>
       </c>
       <c r="G60" s="3">
-        <v>25819400</v>
+        <v>26314200</v>
       </c>
       <c r="H60" s="3">
-        <v>24246200</v>
+        <v>24710900</v>
       </c>
       <c r="I60" s="3">
-        <v>24281100</v>
+        <v>24746400</v>
       </c>
       <c r="J60" s="3">
-        <v>23679000</v>
+        <v>24132800</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3466900</v>
+        <v>3533400</v>
       </c>
       <c r="E61" s="3">
-        <v>4596200</v>
+        <v>4684300</v>
       </c>
       <c r="F61" s="3">
-        <v>7373600</v>
+        <v>7515000</v>
       </c>
       <c r="G61" s="3">
-        <v>9251600</v>
+        <v>9428900</v>
       </c>
       <c r="H61" s="3">
-        <v>10509700</v>
+        <v>10711200</v>
       </c>
       <c r="I61" s="3">
-        <v>9211000</v>
+        <v>9387600</v>
       </c>
       <c r="J61" s="3">
-        <v>8068300</v>
+        <v>8223000</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5549800</v>
+        <v>5656100</v>
       </c>
       <c r="E62" s="3">
-        <v>11019400</v>
+        <v>11230600</v>
       </c>
       <c r="F62" s="3">
-        <v>7608500</v>
+        <v>7754300</v>
       </c>
       <c r="G62" s="3">
-        <v>7233800</v>
+        <v>7372400</v>
       </c>
       <c r="H62" s="3">
-        <v>7168300</v>
+        <v>7305700</v>
       </c>
       <c r="I62" s="3">
-        <v>8054300</v>
+        <v>8208700</v>
       </c>
       <c r="J62" s="3">
-        <v>16715500</v>
+        <v>17035800</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2072,7 +2106,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2099,7 +2133,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2126,34 +2160,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32597900</v>
+        <v>33222700</v>
       </c>
       <c r="E66" s="3">
-        <v>42775200</v>
+        <v>43595000</v>
       </c>
       <c r="F66" s="3">
-        <v>45276600</v>
+        <v>46144400</v>
       </c>
       <c r="G66" s="3">
-        <v>46574400</v>
+        <v>47467100</v>
       </c>
       <c r="H66" s="3">
-        <v>45639100</v>
+        <v>46513800</v>
       </c>
       <c r="I66" s="3">
-        <v>44933100</v>
+        <v>45794200</v>
       </c>
       <c r="J66" s="3">
-        <v>43367700</v>
+        <v>44198900</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2166,7 +2200,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2193,7 +2227,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2220,7 +2254,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2247,7 +2281,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2274,34 +2308,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1983500</v>
+        <v>2021500</v>
       </c>
       <c r="E72" s="3">
-        <v>-5148100</v>
+        <v>-5246800</v>
       </c>
       <c r="F72" s="3">
-        <v>-681100</v>
+        <v>-694100</v>
       </c>
       <c r="G72" s="3">
-        <v>3399300</v>
+        <v>3464400</v>
       </c>
       <c r="H72" s="3">
-        <v>4035200</v>
+        <v>4112600</v>
       </c>
       <c r="I72" s="3">
-        <v>5636200</v>
+        <v>5744200</v>
       </c>
       <c r="J72" s="3">
-        <v>5250400</v>
+        <v>5351100</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2328,7 +2362,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2355,7 +2389,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2382,34 +2416,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6946400</v>
+        <v>7079500</v>
       </c>
       <c r="E76" s="3">
-        <v>-4904600</v>
+        <v>-4998600</v>
       </c>
       <c r="F76" s="3">
-        <v>2917100</v>
+        <v>2973000</v>
       </c>
       <c r="G76" s="3">
-        <v>9615000</v>
+        <v>9799300</v>
       </c>
       <c r="H76" s="3">
-        <v>9111200</v>
+        <v>9285800</v>
       </c>
       <c r="I76" s="3">
-        <v>9174000</v>
+        <v>9349800</v>
       </c>
       <c r="J76" s="3">
-        <v>7659100</v>
+        <v>7805900</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2436,12 +2470,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2468,34 +2502,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7131600</v>
+        <v>7268300</v>
       </c>
       <c r="E81" s="3">
-        <v>-8565400</v>
+        <v>-8729600</v>
       </c>
       <c r="F81" s="3">
-        <v>-4080300</v>
+        <v>-4158500</v>
       </c>
       <c r="G81" s="3">
-        <v>-335500</v>
+        <v>-341900</v>
       </c>
       <c r="H81" s="3">
-        <v>534300</v>
+        <v>544600</v>
       </c>
       <c r="I81" s="3">
-        <v>686200</v>
+        <v>699400</v>
       </c>
       <c r="J81" s="3">
-        <v>621400</v>
+        <v>633300</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2508,34 +2542,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1047300</v>
+        <v>1067400</v>
       </c>
       <c r="E83" s="3">
-        <v>1445600</v>
+        <v>1473300</v>
       </c>
       <c r="F83" s="3">
-        <v>1897000</v>
+        <v>1933400</v>
       </c>
       <c r="G83" s="3">
-        <v>1684800</v>
+        <v>1717000</v>
       </c>
       <c r="H83" s="3">
-        <v>1523800</v>
+        <v>1553000</v>
       </c>
       <c r="I83" s="3">
-        <v>1939500</v>
+        <v>1976700</v>
       </c>
       <c r="J83" s="3">
-        <v>2214400</v>
+        <v>2256800</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2562,7 +2596,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2589,7 +2623,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2616,7 +2650,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2643,7 +2677,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2670,34 +2704,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>369400</v>
+        <v>376400</v>
       </c>
       <c r="E89" s="3">
-        <v>1190000</v>
+        <v>1212800</v>
       </c>
       <c r="F89" s="3">
-        <v>-10900</v>
+        <v>-11100</v>
       </c>
       <c r="G89" s="3">
-        <v>2931000</v>
+        <v>2987200</v>
       </c>
       <c r="H89" s="3">
-        <v>2520300</v>
+        <v>2568600</v>
       </c>
       <c r="I89" s="3">
-        <v>1173600</v>
+        <v>1196100</v>
       </c>
       <c r="J89" s="3">
-        <v>2971400</v>
+        <v>3028400</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2710,34 +2744,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1773200</v>
+        <v>-1618400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1603100</v>
+        <v>-1435200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2585300</v>
+        <v>-2187900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2553500</v>
+        <v>-2138100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2234300</v>
+        <v>-1816400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2627400</v>
+        <v>-2409900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2937400</v>
+        <v>-2637300</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2764,7 +2798,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2791,34 +2825,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1339300</v>
+        <v>-1364900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1587100</v>
+        <v>-1617500</v>
       </c>
       <c r="F94" s="3">
-        <v>5796000</v>
+        <v>5907100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1686500</v>
+        <v>-1718800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2165200</v>
+        <v>-2206700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1741600</v>
+        <v>-1775000</v>
       </c>
       <c r="J94" s="3">
-        <v>-3346000</v>
+        <v>-3410100</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2831,34 +2865,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-97000</v>
+        <v>-98900</v>
       </c>
       <c r="E96" s="3">
-        <v>-113100</v>
+        <v>-115300</v>
       </c>
       <c r="F96" s="3">
-        <v>-282500</v>
+        <v>-287900</v>
       </c>
       <c r="G96" s="3">
-        <v>-373100</v>
+        <v>-380300</v>
       </c>
       <c r="H96" s="3">
-        <v>-345500</v>
+        <v>-352100</v>
       </c>
       <c r="I96" s="3">
-        <v>-377400</v>
+        <v>-384600</v>
       </c>
       <c r="J96" s="3">
-        <v>-328300</v>
+        <v>-334500</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2885,7 +2919,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2912,7 +2946,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2939,84 +2973,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-564200</v>
+        <v>-575100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1949300</v>
+        <v>-1986600</v>
       </c>
       <c r="F100" s="3">
-        <v>1204100</v>
+        <v>1227200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1115800</v>
+        <v>-1137200</v>
       </c>
       <c r="H100" s="3">
-        <v>-792200</v>
+        <v>-807400</v>
       </c>
       <c r="I100" s="3">
-        <v>370500</v>
+        <v>377600</v>
       </c>
       <c r="J100" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14300</v>
+        <v>-14600</v>
       </c>
       <c r="E101" s="3">
-        <v>-29400</v>
+        <v>-29900</v>
       </c>
       <c r="F101" s="3">
-        <v>-104600</v>
+        <v>-106600</v>
       </c>
       <c r="G101" s="3">
-        <v>119800</v>
+        <v>122100</v>
       </c>
       <c r="H101" s="3">
-        <v>101600</v>
+        <v>103500</v>
       </c>
       <c r="I101" s="3">
-        <v>151900</v>
+        <v>154800</v>
       </c>
       <c r="J101" s="3">
-        <v>-18300</v>
+        <v>-18700</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1548500</v>
+        <v>-1578100</v>
       </c>
       <c r="E102" s="3">
-        <v>-2375700</v>
+        <v>-2421200</v>
       </c>
       <c r="F102" s="3">
-        <v>6884600</v>
+        <v>7016500</v>
       </c>
       <c r="G102" s="3">
-        <v>248600</v>
+        <v>253400</v>
       </c>
       <c r="H102" s="3">
-        <v>-335500</v>
+        <v>-342000</v>
       </c>
       <c r="I102" s="3">
-        <v>-45600</v>
+        <v>-46400</v>
       </c>
       <c r="J102" s="3">
-        <v>-395000</v>
+        <v>-402600</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/TOSYY_YR_FIN.xlsx
+++ b/Financials/Yearly/TOSYY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1024ACFA-AA6D-42FA-865A-AF57DEDA32F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TOSYY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>TOSYY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,143 +654,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35686300</v>
+        <v>33574300</v>
       </c>
       <c r="E8" s="3">
-        <v>36555400</v>
+        <v>35883600</v>
       </c>
       <c r="F8" s="3">
-        <v>46599700</v>
+        <v>36757600</v>
       </c>
       <c r="G8" s="3">
-        <v>55276700</v>
+        <v>46857500</v>
       </c>
       <c r="H8" s="3">
-        <v>58666900</v>
+        <v>55582500</v>
       </c>
       <c r="I8" s="3">
-        <v>51772000</v>
+        <v>58991400</v>
       </c>
       <c r="J8" s="3">
+        <v>52058300</v>
+      </c>
+      <c r="K8" s="3">
         <v>55146400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27001000</v>
+        <v>25302600</v>
       </c>
       <c r="E9" s="3">
-        <v>27257400</v>
+        <v>27150400</v>
       </c>
       <c r="F9" s="3">
-        <v>39806000</v>
+        <v>27408100</v>
       </c>
       <c r="G9" s="3">
-        <v>42517000</v>
+        <v>40026200</v>
       </c>
       <c r="H9" s="3">
-        <v>43986700</v>
+        <v>42752200</v>
       </c>
       <c r="I9" s="3">
-        <v>38998200</v>
+        <v>44230000</v>
       </c>
       <c r="J9" s="3">
+        <v>39213900</v>
+      </c>
+      <c r="K9" s="3">
         <v>83743400</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8685200</v>
+        <v>8271700</v>
       </c>
       <c r="E10" s="3">
-        <v>9298000</v>
+        <v>8733300</v>
       </c>
       <c r="F10" s="3">
-        <v>6793700</v>
+        <v>9349400</v>
       </c>
       <c r="G10" s="3">
-        <v>12759700</v>
+        <v>6831300</v>
       </c>
       <c r="H10" s="3">
-        <v>14680200</v>
+        <v>12830300</v>
       </c>
       <c r="I10" s="3">
-        <v>12773800</v>
+        <v>14761400</v>
       </c>
       <c r="J10" s="3">
+        <v>12844400</v>
+      </c>
+      <c r="K10" s="3">
         <v>-28597000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +814,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,12 +838,15 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
         <v>2891600</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,23 +871,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>152900</v>
-      </c>
       <c r="F14" s="3">
-        <v>428200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>153700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>430600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -917,9 +901,12 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -944,9 +931,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -955,62 +945,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>35107100</v>
+        <v>33252100</v>
       </c>
       <c r="E17" s="3">
-        <v>35814000</v>
+        <v>35301300</v>
       </c>
       <c r="F17" s="3">
-        <v>50966100</v>
+        <v>36012000</v>
       </c>
       <c r="G17" s="3">
-        <v>53573500</v>
+        <v>51248000</v>
       </c>
       <c r="H17" s="3">
-        <v>56342500</v>
+        <v>53869800</v>
       </c>
       <c r="I17" s="3">
-        <v>49984400</v>
+        <v>56654100</v>
       </c>
       <c r="J17" s="3">
+        <v>50260800</v>
+      </c>
+      <c r="K17" s="3">
         <v>53314300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>579200</v>
+        <v>322200</v>
       </c>
       <c r="E18" s="3">
-        <v>741400</v>
+        <v>582400</v>
       </c>
       <c r="F18" s="3">
-        <v>-4366400</v>
+        <v>745500</v>
       </c>
       <c r="G18" s="3">
-        <v>1703200</v>
+        <v>-4390600</v>
       </c>
       <c r="H18" s="3">
-        <v>2324400</v>
+        <v>1712600</v>
       </c>
       <c r="I18" s="3">
-        <v>1787600</v>
+        <v>2337300</v>
       </c>
       <c r="J18" s="3">
+        <v>1797500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1832100</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1022,143 +1019,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>431000</v>
+        <v>-127000</v>
       </c>
       <c r="E20" s="3">
-        <v>-167500</v>
+        <v>433300</v>
       </c>
       <c r="F20" s="3">
-        <v>917800</v>
+        <v>-168400</v>
       </c>
       <c r="G20" s="3">
-        <v>-77600</v>
+        <v>922800</v>
       </c>
       <c r="H20" s="3">
-        <v>-371500</v>
+        <v>-78000</v>
       </c>
       <c r="I20" s="3">
-        <v>-49100</v>
+        <v>-373500</v>
       </c>
       <c r="J20" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-228400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2078700</v>
+        <v>910500</v>
       </c>
       <c r="E21" s="3">
-        <v>2048800</v>
+        <v>2091400</v>
       </c>
       <c r="F21" s="3">
-        <v>-1513100</v>
+        <v>2061800</v>
       </c>
       <c r="G21" s="3">
-        <v>3344600</v>
+        <v>-1519400</v>
       </c>
       <c r="H21" s="3">
-        <v>3507700</v>
+        <v>3365000</v>
       </c>
       <c r="I21" s="3">
-        <v>3717300</v>
+        <v>3528800</v>
       </c>
       <c r="J21" s="3">
+        <v>3740000</v>
+      </c>
+      <c r="K21" s="3">
         <v>3862900</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>265500</v>
+        <v>96000</v>
       </c>
       <c r="E22" s="3">
-        <v>167600</v>
+        <v>266900</v>
       </c>
       <c r="F22" s="3">
-        <v>161600</v>
+        <v>168500</v>
       </c>
       <c r="G22" s="3">
-        <v>209900</v>
+        <v>162500</v>
       </c>
       <c r="H22" s="3">
-        <v>304600</v>
+        <v>211000</v>
       </c>
       <c r="I22" s="3">
-        <v>295400</v>
+        <v>306300</v>
       </c>
       <c r="J22" s="3">
+        <v>297000</v>
+      </c>
+      <c r="K22" s="3">
         <v>287600</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>744700</v>
+        <v>99200</v>
       </c>
       <c r="E23" s="3">
-        <v>406300</v>
+        <v>748800</v>
       </c>
       <c r="F23" s="3">
-        <v>-3610200</v>
+        <v>408600</v>
       </c>
       <c r="G23" s="3">
-        <v>1415800</v>
+        <v>-3630200</v>
       </c>
       <c r="H23" s="3">
-        <v>1648300</v>
+        <v>1423600</v>
       </c>
       <c r="I23" s="3">
-        <v>1443000</v>
+        <v>1657400</v>
       </c>
       <c r="J23" s="3">
+        <v>1451000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1316000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-559900</v>
+        <v>141400</v>
       </c>
       <c r="E24" s="3">
-        <v>524000</v>
+        <v>-563000</v>
       </c>
       <c r="F24" s="3">
-        <v>2227600</v>
+        <v>526900</v>
       </c>
       <c r="G24" s="3">
-        <v>1292900</v>
+        <v>2239900</v>
       </c>
       <c r="H24" s="3">
-        <v>832100</v>
+        <v>1300000</v>
       </c>
       <c r="I24" s="3">
-        <v>536200</v>
+        <v>836700</v>
       </c>
       <c r="J24" s="3">
+        <v>539200</v>
+      </c>
+      <c r="K24" s="3">
         <v>580600</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,63 +1196,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1304600</v>
+        <v>-42200</v>
       </c>
       <c r="E26" s="3">
-        <v>-117700</v>
+        <v>1311800</v>
       </c>
       <c r="F26" s="3">
-        <v>-5837800</v>
+        <v>-118400</v>
       </c>
       <c r="G26" s="3">
-        <v>122900</v>
+        <v>-5870100</v>
       </c>
       <c r="H26" s="3">
-        <v>816200</v>
+        <v>123600</v>
       </c>
       <c r="I26" s="3">
-        <v>906800</v>
+        <v>820700</v>
       </c>
       <c r="J26" s="3">
+        <v>911900</v>
+      </c>
+      <c r="K26" s="3">
         <v>735500</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>975800</v>
+        <v>-245300</v>
       </c>
       <c r="E27" s="3">
-        <v>1640900</v>
+        <v>981200</v>
       </c>
       <c r="F27" s="3">
-        <v>-5331300</v>
+        <v>1650000</v>
       </c>
       <c r="G27" s="3">
-        <v>-47100</v>
+        <v>-5360800</v>
       </c>
       <c r="H27" s="3">
-        <v>680400</v>
+        <v>-47400</v>
       </c>
       <c r="I27" s="3">
-        <v>744400</v>
+        <v>684100</v>
       </c>
       <c r="J27" s="3">
+        <v>748600</v>
+      </c>
+      <c r="K27" s="3">
         <v>645000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1264,36 +1286,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>6292500</v>
+        <v>9455800</v>
       </c>
       <c r="E29" s="3">
-        <v>-10370500</v>
+        <v>6327300</v>
       </c>
       <c r="F29" s="3">
-        <v>1172800</v>
+        <v>-10427900</v>
       </c>
       <c r="G29" s="3">
-        <v>-294800</v>
+        <v>1179300</v>
       </c>
       <c r="H29" s="3">
-        <v>-135800</v>
+        <v>-296500</v>
       </c>
       <c r="I29" s="3">
-        <v>-45000</v>
+        <v>-136500</v>
       </c>
       <c r="J29" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="K29" s="3">
         <v>-11700</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1318,9 +1346,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1345,63 +1376,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-431000</v>
+        <v>127000</v>
       </c>
       <c r="E32" s="3">
-        <v>167500</v>
+        <v>-433300</v>
       </c>
       <c r="F32" s="3">
-        <v>-917800</v>
+        <v>168400</v>
       </c>
       <c r="G32" s="3">
-        <v>77600</v>
+        <v>-922800</v>
       </c>
       <c r="H32" s="3">
-        <v>371500</v>
+        <v>78000</v>
       </c>
       <c r="I32" s="3">
-        <v>49100</v>
+        <v>373500</v>
       </c>
       <c r="J32" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K32" s="3">
         <v>228400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7268300</v>
+        <v>9210500</v>
       </c>
       <c r="E33" s="3">
-        <v>-8729600</v>
+        <v>7308500</v>
       </c>
       <c r="F33" s="3">
-        <v>-4158500</v>
+        <v>-8777900</v>
       </c>
       <c r="G33" s="3">
-        <v>-341900</v>
+        <v>-4181500</v>
       </c>
       <c r="H33" s="3">
-        <v>544600</v>
+        <v>-343800</v>
       </c>
       <c r="I33" s="3">
-        <v>699400</v>
+        <v>547600</v>
       </c>
       <c r="J33" s="3">
+        <v>703300</v>
+      </c>
+      <c r="K33" s="3">
         <v>633300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1426,68 +1466,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7268300</v>
+        <v>9210500</v>
       </c>
       <c r="E35" s="3">
-        <v>-8729600</v>
+        <v>7308500</v>
       </c>
       <c r="F35" s="3">
-        <v>-4158500</v>
+        <v>-8777900</v>
       </c>
       <c r="G35" s="3">
-        <v>-341900</v>
+        <v>-4181500</v>
       </c>
       <c r="H35" s="3">
-        <v>544600</v>
+        <v>-343800</v>
       </c>
       <c r="I35" s="3">
-        <v>699400</v>
+        <v>547600</v>
       </c>
       <c r="J35" s="3">
+        <v>703300</v>
+      </c>
+      <c r="K35" s="3">
         <v>633300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1499,8 +1548,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1512,35 +1562,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4527400</v>
+        <v>12139900</v>
       </c>
       <c r="E41" s="3">
-        <v>4710700</v>
+        <v>4552500</v>
       </c>
       <c r="F41" s="3">
-        <v>8766200</v>
+        <v>4736800</v>
       </c>
       <c r="G41" s="3">
-        <v>1719200</v>
+        <v>8814700</v>
       </c>
       <c r="H41" s="3">
-        <v>1548900</v>
+        <v>1728800</v>
       </c>
       <c r="I41" s="3">
-        <v>1890900</v>
+        <v>1557500</v>
       </c>
       <c r="J41" s="3">
+        <v>1901300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1937300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1565,198 +1619,222 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10231900</v>
+        <v>9982600</v>
       </c>
       <c r="E43" s="3">
-        <v>9559700</v>
+        <v>10288500</v>
       </c>
       <c r="F43" s="3">
-        <v>11456700</v>
+        <v>9612600</v>
       </c>
       <c r="G43" s="3">
-        <v>13687700</v>
+        <v>11520100</v>
       </c>
       <c r="H43" s="3">
-        <v>14823600</v>
+        <v>13763400</v>
       </c>
       <c r="I43" s="3">
-        <v>13815500</v>
+        <v>14905600</v>
       </c>
       <c r="J43" s="3">
+        <v>13892000</v>
+      </c>
+      <c r="K43" s="3">
         <v>15472100</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4246700</v>
+        <v>4262100</v>
       </c>
       <c r="E44" s="3">
-        <v>4526200</v>
+        <v>4270200</v>
       </c>
       <c r="F44" s="3">
-        <v>6591300</v>
+        <v>4551200</v>
       </c>
       <c r="G44" s="3">
-        <v>12134500</v>
+        <v>6627700</v>
       </c>
       <c r="H44" s="3">
-        <v>7998700</v>
+        <v>12201600</v>
       </c>
       <c r="I44" s="3">
-        <v>9068100</v>
+        <v>8042900</v>
       </c>
       <c r="J44" s="3">
+        <v>9118300</v>
+      </c>
+      <c r="K44" s="3">
         <v>14849700</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13349000</v>
+        <v>1193200</v>
       </c>
       <c r="E45" s="3">
-        <v>10035300</v>
+        <v>13422800</v>
       </c>
       <c r="F45" s="3">
-        <v>4451400</v>
+        <v>10090800</v>
       </c>
       <c r="G45" s="3">
-        <v>6536800</v>
+        <v>4476000</v>
       </c>
       <c r="H45" s="3">
-        <v>4183300</v>
+        <v>6572900</v>
       </c>
       <c r="I45" s="3">
-        <v>3795900</v>
+        <v>4206400</v>
       </c>
       <c r="J45" s="3">
+        <v>3816800</v>
+      </c>
+      <c r="K45" s="3">
         <v>7495100</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32355000</v>
+        <v>27577800</v>
       </c>
       <c r="E46" s="3">
-        <v>28831900</v>
+        <v>32534000</v>
       </c>
       <c r="F46" s="3">
-        <v>31265600</v>
+        <v>28991400</v>
       </c>
       <c r="G46" s="3">
-        <v>30179200</v>
+        <v>31438500</v>
       </c>
       <c r="H46" s="3">
-        <v>28554400</v>
+        <v>30346100</v>
       </c>
       <c r="I46" s="3">
-        <v>28570400</v>
+        <v>28712300</v>
       </c>
       <c r="J46" s="3">
+        <v>28728400</v>
+      </c>
+      <c r="K46" s="3">
         <v>27206000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2222400</v>
+        <v>5414200</v>
       </c>
       <c r="E47" s="3">
-        <v>2041500</v>
+        <v>2234700</v>
       </c>
       <c r="F47" s="3">
-        <v>3286500</v>
+        <v>2052800</v>
       </c>
       <c r="G47" s="3">
-        <v>5708200</v>
+        <v>3304600</v>
       </c>
       <c r="H47" s="3">
-        <v>5989500</v>
+        <v>5739800</v>
       </c>
       <c r="I47" s="3">
-        <v>6383900</v>
+        <v>6022600</v>
       </c>
       <c r="J47" s="3">
+        <v>6419200</v>
+      </c>
+      <c r="K47" s="3">
         <v>10077200</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3305300</v>
+        <v>3506200</v>
       </c>
       <c r="E48" s="3">
-        <v>3649700</v>
+        <v>3323600</v>
       </c>
       <c r="F48" s="3">
-        <v>7180500</v>
+        <v>3669900</v>
       </c>
       <c r="G48" s="3">
-        <v>7716000</v>
+        <v>7220200</v>
       </c>
       <c r="H48" s="3">
-        <v>8227500</v>
+        <v>7758700</v>
       </c>
       <c r="I48" s="3">
-        <v>7997500</v>
+        <v>8273000</v>
       </c>
       <c r="J48" s="3">
+        <v>8041700</v>
+      </c>
+      <c r="K48" s="3">
         <v>36286100</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1143700</v>
+        <v>1059800</v>
       </c>
       <c r="E49" s="3">
-        <v>6394800</v>
+        <v>1150000</v>
       </c>
       <c r="F49" s="3">
-        <v>5784600</v>
+        <v>6430200</v>
       </c>
       <c r="G49" s="3">
-        <v>9898500</v>
+        <v>5816600</v>
       </c>
       <c r="H49" s="3">
-        <v>8993800</v>
+        <v>9953300</v>
       </c>
       <c r="I49" s="3">
-        <v>8245600</v>
+        <v>9043500</v>
       </c>
       <c r="J49" s="3">
+        <v>8291200</v>
+      </c>
+      <c r="K49" s="3">
         <v>12956000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1781,9 +1859,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1808,36 +1889,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1275800</v>
+        <v>1504900</v>
       </c>
       <c r="E52" s="3">
-        <v>946900</v>
+        <v>1282900</v>
       </c>
       <c r="F52" s="3">
-        <v>1600200</v>
+        <v>952200</v>
       </c>
       <c r="G52" s="3">
-        <v>3764400</v>
+        <v>1609100</v>
       </c>
       <c r="H52" s="3">
-        <v>4034400</v>
+        <v>3785300</v>
       </c>
       <c r="I52" s="3">
-        <v>3946600</v>
+        <v>4056700</v>
       </c>
       <c r="J52" s="3">
+        <v>3968400</v>
+      </c>
+      <c r="K52" s="3">
         <v>8620500</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1862,36 +1949,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40302200</v>
+        <v>39062900</v>
       </c>
       <c r="E54" s="3">
-        <v>38596400</v>
+        <v>40525100</v>
       </c>
       <c r="F54" s="3">
-        <v>49117400</v>
+        <v>38809900</v>
       </c>
       <c r="G54" s="3">
-        <v>57266400</v>
+        <v>49389100</v>
       </c>
       <c r="H54" s="3">
-        <v>55799600</v>
+        <v>57583100</v>
       </c>
       <c r="I54" s="3">
-        <v>55144000</v>
+        <v>56108200</v>
       </c>
       <c r="J54" s="3">
+        <v>55449000</v>
+      </c>
+      <c r="K54" s="3">
         <v>52004700</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1903,8 +1996,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1916,170 +2010,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6189600</v>
+        <v>6006600</v>
       </c>
       <c r="E57" s="3">
-        <v>6090100</v>
+        <v>6223800</v>
       </c>
       <c r="F57" s="3">
-        <v>7928600</v>
+        <v>6123700</v>
       </c>
       <c r="G57" s="3">
-        <v>10504000</v>
+        <v>7972500</v>
       </c>
       <c r="H57" s="3">
-        <v>10892100</v>
+        <v>10562100</v>
       </c>
       <c r="I57" s="3">
-        <v>10759400</v>
+        <v>10952400</v>
       </c>
       <c r="J57" s="3">
+        <v>10818900</v>
+      </c>
+      <c r="K57" s="3">
         <v>11689000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2726100</v>
+        <v>3251900</v>
       </c>
       <c r="E58" s="3">
-        <v>9165400</v>
+        <v>2741200</v>
       </c>
       <c r="F58" s="3">
-        <v>5601300</v>
+        <v>9216100</v>
       </c>
       <c r="G58" s="3">
-        <v>2422500</v>
+        <v>5632300</v>
       </c>
       <c r="H58" s="3">
-        <v>3679700</v>
+        <v>2435900</v>
       </c>
       <c r="I58" s="3">
-        <v>3915500</v>
+        <v>3700000</v>
       </c>
       <c r="J58" s="3">
+        <v>3937100</v>
+      </c>
+      <c r="K58" s="3">
         <v>4816200</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13060000</v>
+        <v>7816300</v>
       </c>
       <c r="E59" s="3">
-        <v>12884200</v>
+        <v>13132300</v>
       </c>
       <c r="F59" s="3">
-        <v>14241000</v>
+        <v>12955500</v>
       </c>
       <c r="G59" s="3">
-        <v>13387800</v>
+        <v>14319800</v>
       </c>
       <c r="H59" s="3">
-        <v>11978900</v>
+        <v>13461800</v>
       </c>
       <c r="I59" s="3">
-        <v>10071600</v>
+        <v>12045200</v>
       </c>
       <c r="J59" s="3">
+        <v>10127300</v>
+      </c>
+      <c r="K59" s="3">
         <v>13509200</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21975700</v>
+        <v>17074800</v>
       </c>
       <c r="E60" s="3">
-        <v>25173900</v>
+        <v>22097200</v>
       </c>
       <c r="F60" s="3">
-        <v>27771000</v>
+        <v>25313200</v>
       </c>
       <c r="G60" s="3">
-        <v>26314200</v>
+        <v>27924600</v>
       </c>
       <c r="H60" s="3">
-        <v>24710900</v>
+        <v>26459800</v>
       </c>
       <c r="I60" s="3">
-        <v>24746400</v>
+        <v>24847600</v>
       </c>
       <c r="J60" s="3">
+        <v>24883300</v>
+      </c>
+      <c r="K60" s="3">
         <v>24132800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3533400</v>
+        <v>699300</v>
       </c>
       <c r="E61" s="3">
-        <v>4684300</v>
+        <v>3552900</v>
       </c>
       <c r="F61" s="3">
-        <v>7515000</v>
+        <v>4710200</v>
       </c>
       <c r="G61" s="3">
-        <v>9428900</v>
+        <v>7556500</v>
       </c>
       <c r="H61" s="3">
-        <v>10711200</v>
+        <v>9481100</v>
       </c>
       <c r="I61" s="3">
-        <v>9387600</v>
+        <v>10770400</v>
       </c>
       <c r="J61" s="3">
+        <v>9439500</v>
+      </c>
+      <c r="K61" s="3">
         <v>8223000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5656100</v>
+        <v>5844400</v>
       </c>
       <c r="E62" s="3">
-        <v>11230600</v>
+        <v>5687400</v>
       </c>
       <c r="F62" s="3">
-        <v>7754300</v>
+        <v>11292700</v>
       </c>
       <c r="G62" s="3">
-        <v>7372400</v>
+        <v>7797200</v>
       </c>
       <c r="H62" s="3">
-        <v>7305700</v>
+        <v>7413200</v>
       </c>
       <c r="I62" s="3">
-        <v>8208700</v>
+        <v>7346100</v>
       </c>
       <c r="J62" s="3">
+        <v>8254100</v>
+      </c>
+      <c r="K62" s="3">
         <v>17035800</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2104,9 +2217,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2131,9 +2247,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2158,36 +2277,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33222700</v>
+        <v>25821800</v>
       </c>
       <c r="E66" s="3">
-        <v>43595000</v>
+        <v>33406400</v>
       </c>
       <c r="F66" s="3">
-        <v>46144400</v>
+        <v>43836200</v>
       </c>
       <c r="G66" s="3">
-        <v>47467100</v>
+        <v>46399600</v>
       </c>
       <c r="H66" s="3">
-        <v>46513800</v>
+        <v>47729600</v>
       </c>
       <c r="I66" s="3">
-        <v>45794200</v>
+        <v>46771000</v>
       </c>
       <c r="J66" s="3">
+        <v>46047500</v>
+      </c>
+      <c r="K66" s="3">
         <v>44198900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2199,8 +2324,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2225,9 +2351,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2252,9 +2381,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2279,9 +2411,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2306,36 +2441,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2021500</v>
+        <v>13893700</v>
       </c>
       <c r="E72" s="3">
-        <v>-5246800</v>
+        <v>2032700</v>
       </c>
       <c r="F72" s="3">
-        <v>-694100</v>
+        <v>-5275800</v>
       </c>
       <c r="G72" s="3">
-        <v>3464400</v>
+        <v>-697900</v>
       </c>
       <c r="H72" s="3">
-        <v>4112600</v>
+        <v>3483600</v>
       </c>
       <c r="I72" s="3">
-        <v>5744200</v>
+        <v>4135300</v>
       </c>
       <c r="J72" s="3">
+        <v>5776000</v>
+      </c>
+      <c r="K72" s="3">
         <v>5351100</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2360,9 +2501,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2387,9 +2531,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2414,36 +2561,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7079500</v>
+        <v>13241000</v>
       </c>
       <c r="E76" s="3">
-        <v>-4998600</v>
+        <v>7118700</v>
       </c>
       <c r="F76" s="3">
-        <v>2973000</v>
+        <v>-5026300</v>
       </c>
       <c r="G76" s="3">
-        <v>9799300</v>
+        <v>2989500</v>
       </c>
       <c r="H76" s="3">
-        <v>9285800</v>
+        <v>9853500</v>
       </c>
       <c r="I76" s="3">
-        <v>9349800</v>
+        <v>9337100</v>
       </c>
       <c r="J76" s="3">
+        <v>9401500</v>
+      </c>
+      <c r="K76" s="3">
         <v>7805900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2468,68 +2621,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7268300</v>
+        <v>9210500</v>
       </c>
       <c r="E81" s="3">
-        <v>-8729600</v>
+        <v>7308500</v>
       </c>
       <c r="F81" s="3">
-        <v>-4158500</v>
+        <v>-8777900</v>
       </c>
       <c r="G81" s="3">
-        <v>-341900</v>
+        <v>-4181500</v>
       </c>
       <c r="H81" s="3">
-        <v>544600</v>
+        <v>-343800</v>
       </c>
       <c r="I81" s="3">
-        <v>699400</v>
+        <v>547600</v>
       </c>
       <c r="J81" s="3">
+        <v>703300</v>
+      </c>
+      <c r="K81" s="3">
         <v>633300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2541,35 +2703,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1067400</v>
+        <v>713700</v>
       </c>
       <c r="E83" s="3">
-        <v>1473300</v>
+        <v>1073300</v>
       </c>
       <c r="F83" s="3">
-        <v>1933400</v>
+        <v>1481400</v>
       </c>
       <c r="G83" s="3">
-        <v>1717000</v>
+        <v>1944100</v>
       </c>
       <c r="H83" s="3">
-        <v>1553000</v>
+        <v>1726500</v>
       </c>
       <c r="I83" s="3">
-        <v>1976700</v>
+        <v>1561600</v>
       </c>
       <c r="J83" s="3">
+        <v>1987600</v>
+      </c>
+      <c r="K83" s="3">
         <v>2256800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2594,9 +2760,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2621,9 +2790,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2648,9 +2820,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2675,9 +2850,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2702,36 +2880,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>376400</v>
+        <v>1134900</v>
       </c>
       <c r="E89" s="3">
-        <v>1212800</v>
+        <v>339700</v>
       </c>
       <c r="F89" s="3">
-        <v>-11100</v>
+        <v>1219500</v>
       </c>
       <c r="G89" s="3">
-        <v>2987200</v>
+        <v>-11200</v>
       </c>
       <c r="H89" s="3">
-        <v>2568600</v>
+        <v>3003700</v>
       </c>
       <c r="I89" s="3">
-        <v>1196100</v>
+        <v>2582800</v>
       </c>
       <c r="J89" s="3">
+        <v>1202800</v>
+      </c>
+      <c r="K89" s="3">
         <v>3028400</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2743,35 +2927,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1618400</v>
+        <v>-1114000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1435200</v>
+        <v>-1627400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2187900</v>
+        <v>-1443100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2138100</v>
+        <v>-2200000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1816400</v>
+        <v>-2149900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2409900</v>
+        <v>-1826400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2423200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2637300</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2796,9 +2984,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2823,36 +3014,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1364900</v>
+        <v>11866400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1617500</v>
+        <v>-1333600</v>
       </c>
       <c r="F94" s="3">
-        <v>5907100</v>
+        <v>-1626500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1718800</v>
+        <v>5939800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2206700</v>
+        <v>-1728300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1775000</v>
+        <v>-2218900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1784800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3410100</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2864,35 +3061,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-98900</v>
+        <v>-202200</v>
       </c>
       <c r="E96" s="3">
-        <v>-115300</v>
+        <v>-99400</v>
       </c>
       <c r="F96" s="3">
-        <v>-287900</v>
+        <v>-115900</v>
       </c>
       <c r="G96" s="3">
-        <v>-380300</v>
+        <v>-289500</v>
       </c>
       <c r="H96" s="3">
-        <v>-352100</v>
+        <v>-382400</v>
       </c>
       <c r="I96" s="3">
-        <v>-384600</v>
+        <v>-354100</v>
       </c>
       <c r="J96" s="3">
+        <v>-386800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-334500</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2917,9 +3118,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2944,9 +3148,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2971,88 +3178,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-575100</v>
+        <v>-5863200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1986600</v>
+        <v>-578200</v>
       </c>
       <c r="F100" s="3">
-        <v>1227200</v>
+        <v>-1997600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1137200</v>
+        <v>1233900</v>
       </c>
       <c r="H100" s="3">
-        <v>-807400</v>
+        <v>-1143500</v>
       </c>
       <c r="I100" s="3">
-        <v>377600</v>
+        <v>-811800</v>
       </c>
       <c r="J100" s="3">
+        <v>379700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2200</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14600</v>
+        <v>14500</v>
       </c>
       <c r="E101" s="3">
-        <v>-29900</v>
+        <v>-14700</v>
       </c>
       <c r="F101" s="3">
-        <v>-106600</v>
+        <v>-30100</v>
       </c>
       <c r="G101" s="3">
-        <v>122100</v>
+        <v>-107200</v>
       </c>
       <c r="H101" s="3">
-        <v>103500</v>
+        <v>122800</v>
       </c>
       <c r="I101" s="3">
-        <v>154800</v>
+        <v>104100</v>
       </c>
       <c r="J101" s="3">
+        <v>155600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-18700</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1578100</v>
+        <v>7152600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2421200</v>
+        <v>-1586900</v>
       </c>
       <c r="F102" s="3">
-        <v>7016500</v>
+        <v>-2434600</v>
       </c>
       <c r="G102" s="3">
-        <v>253400</v>
+        <v>7055300</v>
       </c>
       <c r="H102" s="3">
-        <v>-342000</v>
+        <v>254800</v>
       </c>
       <c r="I102" s="3">
-        <v>-46400</v>
+        <v>-343900</v>
       </c>
       <c r="J102" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-402600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
